--- a/output_2_ocs.xlsx
+++ b/output_2_ocs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonproject\ICC_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E285DA-D3BF-46F7-87C4-A4982D132A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09749C93-BC14-44C9-936C-F2157F1FFCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,7 +364,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
